--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_33_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -76,118 +76,121 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.001+/-0.002</t>
+    <t>0.841+/-0.002</t>
+  </si>
+  <si>
+    <t>0.811+/-0.0</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.914+/-0.006</t>
+  </si>
+  <si>
+    <t>0.673+/-0.085</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.234+/-0.007</t>
+  </si>
+  <si>
+    <t>0.12+/-0.035</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>5.637+/-0.423</t>
+  </si>
+  <si>
+    <t>0.812+/-0.001</t>
+  </si>
+  <si>
+    <t>0.803+/-0.0</t>
+  </si>
+  <si>
+    <t>0.652+/-0.011</t>
+  </si>
+  <si>
+    <t>0.55+/-0.051</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.142+/-0.005</t>
+  </si>
+  <si>
+    <t>0.119+/-0.033</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>0.969+/-0.017</t>
   </si>
   <si>
     <t>0.839+/-0.002</t>
   </si>
   <si>
-    <t>0.81+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.908+/-0.009</t>
-  </si>
-  <si>
-    <t>0.668+/-0.084</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.22+/-0.008</t>
-  </si>
-  <si>
-    <t>0.114+/-0.035</t>
-  </si>
-  <si>
-    <t>0.093</t>
-  </si>
-  <si>
-    <t>8.773+/-1.225</t>
-  </si>
-  <si>
-    <t>0.812+/-0.001</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.653+/-0.014</t>
-  </si>
-  <si>
-    <t>0.534+/-0.062</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>0.14+/-0.01</t>
-  </si>
-  <si>
-    <t>0.108+/-0.022</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>1.654+/-0.023</t>
-  </si>
-  <si>
     <t>0.808+/-0.0</t>
   </si>
   <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.859+/-0.012</t>
-  </si>
-  <si>
-    <t>0.609+/-0.049</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.239+/-0.009</t>
-  </si>
-  <si>
-    <t>0.138+/-0.033</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.862+/-0.011</t>
+  </si>
+  <si>
+    <t>0.603+/-0.065</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.238+/-0.01</t>
+  </si>
+  <si>
+    <t>0.14+/-0.026</t>
   </si>
   <si>
     <t>0.123</t>
   </si>
   <si>
-    <t>6.675+/-0.993</t>
-  </si>
-  <si>
-    <t>0.806+/-0.0</t>
-  </si>
-  <si>
-    <t>0.765+/-0.017</t>
-  </si>
-  <si>
-    <t>0.64+/-0.08</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.095+/-0.009</t>
-  </si>
-  <si>
-    <t>0.075+/-0.027</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>1.16+/-0.139</t>
+    <t>3.685+/-0.048</t>
+  </si>
+  <si>
+    <t>0.813+/-0.001</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.763+/-0.019</t>
+  </si>
+  <si>
+    <t>0.618+/-0.085</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.105+/-0.006</t>
+  </si>
+  <si>
+    <t>0.079+/-0.028</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.583+/-0.036</t>
   </si>
   <si>
     <t>0.85+/-0.0</t>
@@ -196,358 +199,352 @@
     <t>0.85</t>
   </si>
   <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.877+/-0.001</t>
+    <t>0.876+/-0.001</t>
   </si>
   <si>
     <t>0.854+/-0.0</t>
   </si>
   <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.885+/-0.009</t>
-  </si>
-  <si>
-    <t>0.594+/-0.114</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.207+/-0.007</t>
-  </si>
-  <si>
-    <t>0.096+/-0.024</t>
+    <t>0.882+/-0.009</t>
+  </si>
+  <si>
+    <t>0.586+/-0.106</t>
+  </si>
+  <si>
+    <t>0.202+/-0.007</t>
+  </si>
+  <si>
+    <t>0.094+/-0.024</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>4.564+/-0.048</t>
+  </si>
+  <si>
+    <t>0.858+/-0.001</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.642+/-0.017</t>
+  </si>
+  <si>
+    <t>0.519+/-0.084</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.123+/-0.018</t>
+  </si>
+  <si>
+    <t>0.101+/-0.019</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.915+/-0.057</t>
+  </si>
+  <si>
+    <t>0.88+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.859+/-0.007</t>
+  </si>
+  <si>
+    <t>0.556+/-0.092</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.238+/-0.007</t>
+  </si>
+  <si>
+    <t>0.134+/-0.026</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>3.435+/-0.044</t>
+  </si>
+  <si>
+    <t>0.855+/-0.001</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682+/-0.018</t>
+  </si>
+  <si>
+    <t>0.569+/-0.172</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.066+/-0.009</t>
+  </si>
+  <si>
+    <t>0.05+/-0.018</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.537+/-0.024</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.771+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.995+/-0.002</t>
+  </si>
+  <si>
+    <t>0.526+/-0.102</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.173+/-0.004</t>
+  </si>
+  <si>
+    <t>0.044+/-0.01</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>5.249+/-0.406</t>
+  </si>
+  <si>
+    <t>0.735+/-0.001</t>
+  </si>
+  <si>
+    <t>0.72+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.679+/-0.023</t>
+  </si>
+  <si>
+    <t>0.453+/-0.095</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.085+/-0.004</t>
+  </si>
+  <si>
+    <t>0.056+/-0.016</t>
   </si>
   <si>
     <t>0.082</t>
   </si>
   <si>
-    <t>10.289+/-1.23</t>
-  </si>
-  <si>
-    <t>0.858+/-0.001</t>
-  </si>
-  <si>
-    <t>0.853+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.634+/-0.017</t>
-  </si>
-  <si>
-    <t>0.542+/-0.055</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.134+/-0.015</t>
-  </si>
-  <si>
-    <t>0.11+/-0.023</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>1.655+/-0.03</t>
-  </si>
-  <si>
-    <t>0.879+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>0.856+/-0.013</t>
-  </si>
-  <si>
-    <t>0.549+/-0.12</t>
-  </si>
-  <si>
-    <t>0.529</t>
-  </si>
-  <si>
-    <t>0.236+/-0.005</t>
-  </si>
-  <si>
-    <t>0.127+/-0.034</t>
-  </si>
-  <si>
-    <t>0.129</t>
-  </si>
-  <si>
-    <t>6.095+/-0.145</t>
-  </si>
-  <si>
-    <t>0.857+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.707+/-0.021</t>
-  </si>
-  <si>
-    <t>0.575+/-0.142</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.081+/-0.012</t>
-  </si>
-  <si>
-    <t>0.061+/-0.018</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>1.223+/-0.024</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.001+/-0.001</t>
-  </si>
-  <si>
-    <t>0.77+/-0.002</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.996+/-0.003</t>
-  </si>
-  <si>
-    <t>0.498+/-0.096</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.171+/-0.005</t>
-  </si>
-  <si>
-    <t>0.039+/-0.009</t>
-  </si>
-  <si>
-    <t>8.484+/-0.223</t>
-  </si>
-  <si>
-    <t>0.736+/-0.002</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
+    <t>1.093+/-0.043</t>
+  </si>
+  <si>
+    <t>0.767+/-0.002</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.913+/-0.013</t>
+  </si>
+  <si>
+    <t>0.504+/-0.045</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.175+/-0.006</t>
+  </si>
+  <si>
+    <t>0.081+/-0.013</t>
+  </si>
+  <si>
+    <t>4.122+/-0.124</t>
+  </si>
+  <si>
+    <t>0.73+/-0.001</t>
   </si>
   <si>
     <t>0.724</t>
   </si>
   <si>
-    <t>0.681+/-0.023</t>
-  </si>
-  <si>
-    <t>0.471+/-0.132</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.087+/-0.007</t>
-  </si>
-  <si>
-    <t>0.058+/-0.02</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>1.523+/-0.037</t>
-  </si>
-  <si>
-    <t>0.768+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.914+/-0.008</t>
-  </si>
-  <si>
-    <t>0.509+/-0.069</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.18+/-0.005</t>
-  </si>
-  <si>
-    <t>0.081+/-0.013</t>
-  </si>
-  <si>
-    <t>0.089</t>
-  </si>
-  <si>
-    <t>5.581+/-0.481</t>
-  </si>
-  <si>
-    <t>0.73+/-0.001</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.921+/-0.024</t>
-  </si>
-  <si>
-    <t>0.513+/-0.267</t>
-  </si>
-  <si>
-    <t>0.636</t>
+    <t>0.935+/-0.02</t>
+  </si>
+  <si>
+    <t>0.546+/-0.25</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.027+/-0.004</t>
+  </si>
+  <si>
+    <t>0.013+/-0.007</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.694+/-0.024</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.734+/-0.002</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.993+/-0.003</t>
+  </si>
+  <si>
+    <t>0.601+/-0.109</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.138+/-0.005</t>
+  </si>
+  <si>
+    <t>0.032+/-0.01</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>4.773+/-0.095</t>
+  </si>
+  <si>
+    <t>0.704+/-0.001</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.72+/-0.027</t>
+  </si>
+  <si>
+    <t>0.496+/-0.095</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.066+/-0.005</t>
+  </si>
+  <si>
+    <t>0.04+/-0.015</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.954+/-0.012</t>
+  </si>
+  <si>
+    <t>0.74+/-0.002</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.935+/-0.012</t>
+  </si>
+  <si>
+    <t>0.486+/-0.061</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.167+/-0.006</t>
+  </si>
+  <si>
+    <t>0.07+/-0.019</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>3.705+/-0.035</t>
+  </si>
+  <si>
+    <t>0.699+/-0.001</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.875+/-0.029</t>
+  </si>
+  <si>
+    <t>0.672+/-0.148</t>
+  </si>
+  <si>
+    <t>0.571</t>
   </si>
   <si>
     <t>0.026+/-0.003</t>
   </si>
   <si>
-    <t>0.012+/-0.007</t>
+    <t>0.015+/-0.008</t>
   </si>
   <si>
     <t>0.014</t>
   </si>
   <si>
-    <t>0.876+/-0.023</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.734+/-0.002</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.992+/-0.003</t>
-  </si>
-  <si>
-    <t>0.593+/-0.116</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.139+/-0.006</t>
-  </si>
-  <si>
-    <t>0.032+/-0.008</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>6.972+/-0.274</t>
-  </si>
-  <si>
-    <t>0.704+/-0.001</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.713+/-0.023</t>
-  </si>
-  <si>
-    <t>0.496+/-0.164</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.064+/-0.006</t>
-  </si>
-  <si>
-    <t>0.038+/-0.016</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>1.378+/-0.049</t>
-  </si>
-  <si>
-    <t>0.74+/-0.001</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.934+/-0.014</t>
-  </si>
-  <si>
-    <t>0.484+/-0.08</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.17+/-0.006</t>
-  </si>
-  <si>
-    <t>0.068+/-0.017</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>5.138+/-0.095</t>
-  </si>
-  <si>
-    <t>0.699+/-0.001</t>
-  </si>
-  <si>
-    <t>0.873+/-0.023</t>
-  </si>
-  <si>
-    <t>0.708+/-0.157</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.016+/-0.007</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>0.899+/-0.051</t>
+    <t>0.533+/-0.017</t>
   </si>
 </sst>
 </file>
@@ -936,16 +933,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -956,13 +953,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -976,16 +973,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -996,16 +993,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1016,16 +1013,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1036,16 +1033,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1056,16 +1053,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1076,16 +1073,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1096,16 +1093,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1113,19 +1110,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1163,19 +1160,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1183,19 +1180,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1203,19 +1200,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1226,16 +1223,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1246,16 +1243,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1266,16 +1263,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1286,16 +1283,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1306,16 +1303,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1326,16 +1323,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1343,19 +1340,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1393,19 +1390,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1413,19 +1410,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1433,19 +1430,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1456,16 +1453,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1476,16 +1473,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1496,16 +1493,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1516,16 +1513,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1536,16 +1533,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1556,16 +1553,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1573,19 +1570,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1623,19 +1620,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1643,19 +1640,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1663,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1686,16 +1683,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1706,16 +1703,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1726,16 +1723,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1746,16 +1743,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1766,16 +1763,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1786,16 +1783,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1806,16 +1803,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
